--- a/Tutorial - Dye/dye_absorptivity_determination.xlsx
+++ b/Tutorial - Dye/dye_absorptivity_determination.xlsx
@@ -5,17 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/samihat_rahman_mail_utoronto_ca/Documents/Desktop/Teaching/2024-25 Summer CTFP/Tutorial - Actual Module/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/samihat_rahman_mail_utoronto_ca/Documents/Desktop/Teaching/2024-25 Summer CTFP/Tutorial - Actual Module/Empty Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_F9706A827AD700CD9DBCD46ABFF613F9A080447D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EC0214A-D0E4-48E5-887C-26AAFDA49378}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_F25DC773A252ABDACC1048B8519A49685ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDC2052C-851B-43E0-BCB2-F63FA0009D3F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4230" yWindow="1995" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,17 +30,17 @@
     <t>Sample</t>
   </si>
   <si>
-    <t>Concentration (uM)</t>
+    <t>Absorbance 578nm</t>
   </si>
   <si>
-    <t>Absorbance 578nm</t>
+    <t>Concentration (uM)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,15 +51,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,14 +65,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -84,37 +77,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -124,10 +101,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -165,20 +138,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -208,12 +181,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -252,243 +225,215 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>20</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="B3" s="3">
         <v>35.75</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="3">
         <v>51.5</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="3">
         <v>67.25</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>83</v>
       </c>
-      <c r="C6" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xdD4LcbwXUiDQ8W9n7tGpFaa+KlwQvmGJlJgTSAEWpZYjB5SX77Mm+2SXOI7xHFWWo/J8amULOyBk6MLSURugA==" saltValue="Vd4hlsbuCnc89TqFrjr87g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yCoV2QWs4pz3/2cMTsCdqEfiFQ3Wp70E1om3mekp+jPxvB17jOKnzbfrTJy/9M7F6eko/L9bnr8tdI+cZQHBQQ==" saltValue="BoU2S+lwgO10H2gWc0xaSA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>